--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_beverage_soft.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_beverage_soft.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09820000000000001</v>
+        <v>0.0542</v>
       </c>
       <c r="G2">
-        <v>-0.06188118811881188</v>
+        <v>-0.05412844036697247</v>
       </c>
       <c r="H2">
-        <v>-0.06188118811881188</v>
+        <v>-0.05458715596330275</v>
       </c>
       <c r="I2">
-        <v>-0.08441184617338539</v>
+        <v>-0.03738532110091743</v>
       </c>
       <c r="J2">
-        <v>-0.08441184617338539</v>
+        <v>-0.03738532110091743</v>
       </c>
       <c r="K2">
-        <v>-2.33</v>
+        <v>-0.726</v>
       </c>
       <c r="L2">
-        <v>-0.1153465346534654</v>
+        <v>-0.03330275229357798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.57</v>
+        <v>6.75</v>
       </c>
       <c r="V2">
-        <v>0.1928270042194093</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="W2">
-        <v>-0.2351160443995964</v>
+        <v>-0.09797570850202429</v>
       </c>
       <c r="X2">
-        <v>0.06743314274011689</v>
+        <v>0.05003445640734468</v>
       </c>
       <c r="Y2">
-        <v>-0.3025491871397132</v>
+        <v>-0.148010164909369</v>
       </c>
       <c r="Z2">
-        <v>2.587886793075585</v>
+        <v>3.679324894514768</v>
       </c>
       <c r="AA2">
-        <v>-0.2184483018912319</v>
+        <v>-0.1375527426160338</v>
       </c>
       <c r="AB2">
-        <v>0.0623864275686803</v>
+        <v>0.04615367772445398</v>
       </c>
       <c r="AC2">
-        <v>-0.2808347294599122</v>
+        <v>-0.1837064203404877</v>
       </c>
       <c r="AD2">
-        <v>3.09</v>
+        <v>4.13</v>
       </c>
       <c r="AE2">
-        <v>1.015596463511923</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.105596463511922</v>
+        <v>4.13</v>
       </c>
       <c r="AG2">
-        <v>-0.4644035364880779</v>
+        <v>-2.62</v>
       </c>
       <c r="AH2">
-        <v>0.1476536016373365</v>
+        <v>0.1522300036859565</v>
       </c>
       <c r="AI2">
-        <v>0.3339078730906287</v>
+        <v>0.3005822416302766</v>
       </c>
       <c r="AJ2">
-        <v>-0.01998672757195431</v>
+        <v>-0.1285574092247301</v>
       </c>
       <c r="AK2">
-        <v>-0.06011232125331176</v>
+        <v>-0.374821173104435</v>
       </c>
       <c r="AL2">
-        <v>0.134</v>
+        <v>0.137</v>
       </c>
       <c r="AM2">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="AN2">
-        <v>-2.829670329670329</v>
+        <v>-6.154992548435171</v>
       </c>
       <c r="AO2">
-        <v>-15.97014925373134</v>
+        <v>-5.948905109489051</v>
       </c>
       <c r="AP2">
-        <v>0.4252779638169211</v>
+        <v>3.904619970193741</v>
       </c>
       <c r="AQ2">
-        <v>-18.29059829059829</v>
+        <v>-7.149122807017542</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kino Biotech Co., Ltd. (GTSM:4154)</t>
+          <t>Kino Co., Ltd. (GTSM:4154)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.09820000000000001</v>
+        <v>0.0542</v>
       </c>
       <c r="G3">
-        <v>-0.06188118811881188</v>
+        <v>-0.05412844036697247</v>
       </c>
       <c r="H3">
-        <v>-0.06188118811881188</v>
+        <v>-0.05458715596330275</v>
       </c>
       <c r="I3">
-        <v>-0.08441184617338539</v>
+        <v>-0.03738532110091743</v>
       </c>
       <c r="J3">
-        <v>-0.08441184617338539</v>
+        <v>-0.03738532110091743</v>
       </c>
       <c r="K3">
-        <v>-2.33</v>
+        <v>-0.726</v>
       </c>
       <c r="L3">
-        <v>-0.1153465346534654</v>
+        <v>-0.03330275229357798</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.57</v>
+        <v>6.75</v>
       </c>
       <c r="V3">
-        <v>0.1928270042194093</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="W3">
-        <v>-0.2351160443995964</v>
+        <v>-0.09797570850202429</v>
       </c>
       <c r="X3">
-        <v>0.06743314274011689</v>
+        <v>0.05003445640734468</v>
       </c>
       <c r="Y3">
-        <v>-0.3025491871397132</v>
+        <v>-0.148010164909369</v>
       </c>
       <c r="Z3">
-        <v>2.587886793075585</v>
+        <v>3.679324894514768</v>
       </c>
       <c r="AA3">
-        <v>-0.2184483018912319</v>
+        <v>-0.1375527426160338</v>
       </c>
       <c r="AB3">
-        <v>0.0623864275686803</v>
+        <v>0.04615367772445398</v>
       </c>
       <c r="AC3">
-        <v>-0.2808347294599122</v>
+        <v>-0.1837064203404877</v>
       </c>
       <c r="AD3">
-        <v>3.09</v>
+        <v>4.13</v>
       </c>
       <c r="AE3">
-        <v>1.015596463511923</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.105596463511922</v>
+        <v>4.13</v>
       </c>
       <c r="AG3">
-        <v>-0.4644035364880779</v>
+        <v>-2.62</v>
       </c>
       <c r="AH3">
-        <v>0.1476536016373365</v>
+        <v>0.1522300036859565</v>
       </c>
       <c r="AI3">
-        <v>0.3339078730906287</v>
+        <v>0.3005822416302766</v>
       </c>
       <c r="AJ3">
-        <v>-0.01998672757195431</v>
+        <v>-0.1285574092247301</v>
       </c>
       <c r="AK3">
-        <v>-0.06011232125331176</v>
+        <v>-0.374821173104435</v>
       </c>
       <c r="AL3">
-        <v>0.134</v>
+        <v>0.137</v>
       </c>
       <c r="AM3">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="AN3">
-        <v>-2.829670329670329</v>
+        <v>-6.154992548435171</v>
       </c>
       <c r="AO3">
-        <v>-15.97014925373134</v>
+        <v>-5.948905109489051</v>
       </c>
       <c r="AP3">
-        <v>0.4252779638169211</v>
+        <v>3.904619970193741</v>
       </c>
       <c r="AQ3">
-        <v>-18.29059829059829</v>
+        <v>-7.149122807017542</v>
       </c>
     </row>
   </sheetData>
